--- a/src/main/resources/files/edges.xlsx
+++ b/src/main/resources/files/edges.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0787615a65bebdbd/Creative Cloud Files/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AI\demo\src\main\resources\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{BA06F1B2-A99A-4FFA-93D5-3DB36C4993B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2CB72D7F-A89F-4960-943C-3BF10418279D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{092B70D3-6FC5-4580-9191-BB3FF2EA1762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,14 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Source Label</t>
-  </si>
-  <si>
-    <t>Destination Label</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -402,25 +395,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B329"/>
+  <dimension ref="A1:B328"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A291" workbookViewId="0">
-      <selection activeCell="A308" activeCellId="1" sqref="A307:XFD307 A308:XFD308"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1">
         <v>1</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -428,10 +421,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
         <v>3</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -439,20 +432,20 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -460,15 +453,15 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
         <v>6</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -476,15 +469,15 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
         <v>7</v>
-      </c>
-      <c r="B9">
-        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>7</v>
@@ -492,47 +485,47 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11">
         <v>8</v>
-      </c>
-      <c r="B11">
-        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B12">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B13">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B14">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15">
         <v>10</v>
-      </c>
-      <c r="B15">
-        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B16">
         <v>10</v>
@@ -540,15 +533,15 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
+        <v>10</v>
+      </c>
+      <c r="B17">
         <v>11</v>
-      </c>
-      <c r="B17">
-        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B18">
         <v>11</v>
@@ -556,103 +549,103 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
+        <v>11</v>
+      </c>
+      <c r="B19">
         <v>12</v>
-      </c>
-      <c r="B19">
-        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>11</v>
+        <v>119</v>
       </c>
       <c r="B20">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
+        <v>10</v>
+      </c>
+      <c r="B21">
         <v>119</v>
-      </c>
-      <c r="B21">
-        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B22">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="B23">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B24">
-        <v>119</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="B25">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
+        <v>18</v>
+      </c>
+      <c r="B26">
         <v>13</v>
-      </c>
-      <c r="B26">
-        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
+        <v>19</v>
+      </c>
+      <c r="B27">
         <v>18</v>
-      </c>
-      <c r="B27">
-        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
+        <v>20</v>
+      </c>
+      <c r="B28">
         <v>19</v>
-      </c>
-      <c r="B28">
-        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B29">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
+        <v>13</v>
+      </c>
+      <c r="B30">
         <v>14</v>
-      </c>
-      <c r="B30">
-        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B31">
         <v>14</v>
@@ -660,71 +653,71 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
+        <v>16</v>
+      </c>
+      <c r="B32">
         <v>15</v>
-      </c>
-      <c r="B32">
-        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B33">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
+        <v>14</v>
+      </c>
+      <c r="B34">
         <v>17</v>
-      </c>
-      <c r="B34">
-        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B35">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B36">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B37">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B38">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B39">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="B40">
         <v>22</v>
@@ -732,15 +725,15 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
+        <v>22</v>
+      </c>
+      <c r="B41">
         <v>53</v>
-      </c>
-      <c r="B41">
-        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="B42">
         <v>53</v>
@@ -748,15 +741,15 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
+        <v>53</v>
+      </c>
+      <c r="B43">
         <v>52</v>
-      </c>
-      <c r="B43">
-        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B44">
         <v>52</v>
@@ -764,15 +757,15 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
+        <v>52</v>
+      </c>
+      <c r="B45">
         <v>50</v>
-      </c>
-      <c r="B45">
-        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B46">
         <v>50</v>
@@ -780,58 +773,58 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
+        <v>50</v>
+      </c>
+      <c r="B47">
         <v>51</v>
-      </c>
-      <c r="B47">
-        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
+        <v>49</v>
+      </c>
+      <c r="B48">
         <v>50</v>
-      </c>
-      <c r="B48">
-        <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
+        <v>50</v>
+      </c>
+      <c r="B49">
         <v>49</v>
-      </c>
-      <c r="B49">
-        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
+        <v>47</v>
+      </c>
+      <c r="B51">
         <v>49</v>
-      </c>
-      <c r="B51">
-        <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
+        <v>48</v>
+      </c>
+      <c r="B52">
         <v>47</v>
-      </c>
-      <c r="B52">
-        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
+        <v>47</v>
+      </c>
+      <c r="B53">
         <v>48</v>
-      </c>
-      <c r="B53">
-        <v>47</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -839,15 +832,15 @@
         <v>47</v>
       </c>
       <c r="B54">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
+        <v>44</v>
+      </c>
+      <c r="B55">
         <v>47</v>
-      </c>
-      <c r="B55">
-        <v>44</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -855,7 +848,7 @@
         <v>44</v>
       </c>
       <c r="B56">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -863,15 +856,15 @@
         <v>44</v>
       </c>
       <c r="B57">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B58">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -879,20 +872,20 @@
         <v>42</v>
       </c>
       <c r="B59">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
+        <v>43</v>
+      </c>
+      <c r="B60">
         <v>42</v>
-      </c>
-      <c r="B60">
-        <v>44</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B61">
         <v>42</v>
@@ -900,47 +893,47 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
+        <v>41</v>
+      </c>
+      <c r="B62">
         <v>40</v>
-      </c>
-      <c r="B62">
-        <v>42</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
+        <v>40</v>
+      </c>
+      <c r="B63">
         <v>41</v>
-      </c>
-      <c r="B63">
-        <v>40</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
+        <v>37</v>
+      </c>
+      <c r="B64">
         <v>40</v>
-      </c>
-      <c r="B64">
-        <v>41</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
+        <v>38</v>
+      </c>
+      <c r="B65">
         <v>37</v>
-      </c>
-      <c r="B65">
-        <v>40</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66">
+        <v>37</v>
+      </c>
+      <c r="B66">
         <v>38</v>
-      </c>
-      <c r="B66">
-        <v>37</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B67">
         <v>38</v>
@@ -948,31 +941,31 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68">
+        <v>38</v>
+      </c>
+      <c r="B68">
         <v>39</v>
-      </c>
-      <c r="B68">
-        <v>38</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B69">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
+        <v>31</v>
+      </c>
+      <c r="B70">
         <v>32</v>
-      </c>
-      <c r="B70">
-        <v>37</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B71">
         <v>32</v>
@@ -980,15 +973,15 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72">
+        <v>32</v>
+      </c>
+      <c r="B72">
         <v>33</v>
-      </c>
-      <c r="B72">
-        <v>32</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B73">
         <v>33</v>
@@ -996,15 +989,15 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
+        <v>33</v>
+      </c>
+      <c r="B74">
         <v>34</v>
-      </c>
-      <c r="B74">
-        <v>33</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B75">
         <v>34</v>
@@ -1012,47 +1005,47 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76">
+        <v>34</v>
+      </c>
+      <c r="B76">
         <v>35</v>
-      </c>
-      <c r="B76">
-        <v>34</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77">
+        <v>36</v>
+      </c>
+      <c r="B77">
         <v>34</v>
-      </c>
-      <c r="B77">
-        <v>35</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78">
+        <v>34</v>
+      </c>
+      <c r="B78">
         <v>36</v>
-      </c>
-      <c r="B78">
-        <v>34</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B79">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80">
+        <v>30</v>
+      </c>
+      <c r="B80">
         <v>28</v>
-      </c>
-      <c r="B80">
-        <v>31</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B81">
         <v>28</v>
@@ -1063,36 +1056,36 @@
         <v>27</v>
       </c>
       <c r="B82">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83">
+        <v>25</v>
+      </c>
+      <c r="B83">
         <v>27</v>
-      </c>
-      <c r="B83">
-        <v>29</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>25</v>
+        <v>132</v>
       </c>
       <c r="B84">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85">
+        <v>8</v>
+      </c>
+      <c r="B85">
         <v>132</v>
-      </c>
-      <c r="B85">
-        <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>8</v>
+        <v>136</v>
       </c>
       <c r="B86">
         <v>132</v>
@@ -1100,15 +1093,15 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87">
+        <v>132</v>
+      </c>
+      <c r="B87">
         <v>136</v>
-      </c>
-      <c r="B87">
-        <v>132</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="B88">
         <v>136</v>
@@ -1116,15 +1109,15 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89">
+        <v>136</v>
+      </c>
+      <c r="B89">
         <v>150</v>
-      </c>
-      <c r="B89">
-        <v>136</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="B90">
         <v>150</v>
@@ -1132,15 +1125,15 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91">
+        <v>150</v>
+      </c>
+      <c r="B91">
         <v>151</v>
-      </c>
-      <c r="B91">
-        <v>150</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B92">
         <v>151</v>
@@ -1148,15 +1141,15 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93">
+        <v>151</v>
+      </c>
+      <c r="B93">
         <v>152</v>
-      </c>
-      <c r="B93">
-        <v>151</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B94">
         <v>152</v>
@@ -1164,47 +1157,47 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95">
+        <v>154</v>
+      </c>
+      <c r="B95">
         <v>153</v>
-      </c>
-      <c r="B95">
-        <v>152</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96">
+        <v>155</v>
+      </c>
+      <c r="B96">
         <v>154</v>
-      </c>
-      <c r="B96">
-        <v>153</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97">
+        <v>154</v>
+      </c>
+      <c r="B97">
         <v>155</v>
-      </c>
-      <c r="B97">
-        <v>154</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B98">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99">
+        <v>152</v>
+      </c>
+      <c r="B99">
         <v>155</v>
-      </c>
-      <c r="B99">
-        <v>152</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B100">
         <v>155</v>
@@ -1212,39 +1205,39 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101">
+        <v>155</v>
+      </c>
+      <c r="B101">
         <v>156</v>
-      </c>
-      <c r="B101">
-        <v>155</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B102">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B103">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104">
+        <v>155</v>
+      </c>
+      <c r="B104">
         <v>162</v>
-      </c>
-      <c r="B104">
-        <v>155</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B105">
         <v>162</v>
@@ -1252,10 +1245,10 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106">
+        <v>162</v>
+      </c>
+      <c r="B106">
         <v>163</v>
-      </c>
-      <c r="B106">
-        <v>162</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
@@ -1263,44 +1256,44 @@
         <v>162</v>
       </c>
       <c r="B107">
-        <v>163</v>
+        <v>19</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>162</v>
+        <v>20</v>
       </c>
       <c r="B108">
-        <v>19</v>
+        <v>163</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>20</v>
+        <v>163</v>
       </c>
       <c r="B109">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>163</v>
+        <v>22</v>
       </c>
       <c r="B110">
-        <v>157</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111">
+        <v>21</v>
+      </c>
+      <c r="B111">
         <v>22</v>
-      </c>
-      <c r="B111">
-        <v>20</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B112">
         <v>22</v>
@@ -1308,170 +1301,170 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B113">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>21</v>
+        <v>150</v>
       </c>
       <c r="B114">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115">
+        <v>13</v>
+      </c>
+      <c r="B115">
         <v>150</v>
-      </c>
-      <c r="B115">
-        <v>13</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>13</v>
+        <v>151</v>
       </c>
       <c r="B116">
-        <v>150</v>
+        <v>18</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117">
+        <v>18</v>
+      </c>
+      <c r="B117">
         <v>151</v>
-      </c>
-      <c r="B117">
-        <v>18</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B118">
-        <v>151</v>
+        <v>21</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="B119">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120">
+        <v>114</v>
+      </c>
+      <c r="B120">
         <v>108</v>
-      </c>
-      <c r="B120">
-        <v>20</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121">
+        <v>115</v>
+      </c>
+      <c r="B121">
         <v>114</v>
-      </c>
-      <c r="B121">
-        <v>108</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122">
+        <v>116</v>
+      </c>
+      <c r="B122">
         <v>115</v>
-      </c>
-      <c r="B122">
-        <v>114</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123">
+        <v>115</v>
+      </c>
+      <c r="B123">
         <v>116</v>
-      </c>
-      <c r="B123">
-        <v>115</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B124">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B125">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B126">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127">
+        <v>115</v>
+      </c>
+      <c r="B127">
         <v>118</v>
-      </c>
-      <c r="B127">
-        <v>115</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B128">
-        <v>118</v>
+        <v>67</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129">
+        <v>67</v>
+      </c>
+      <c r="B129">
         <v>118</v>
-      </c>
-      <c r="B129">
-        <v>67</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130">
+        <v>68</v>
+      </c>
+      <c r="B130">
         <v>67</v>
-      </c>
-      <c r="B130">
-        <v>118</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131">
+        <v>67</v>
+      </c>
+      <c r="B131">
         <v>68</v>
-      </c>
-      <c r="B131">
-        <v>67</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>67</v>
+        <v>116</v>
       </c>
       <c r="B132">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133">
+        <v>55</v>
+      </c>
+      <c r="B133">
         <v>116</v>
-      </c>
-      <c r="B133">
-        <v>55</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
@@ -1479,52 +1472,52 @@
         <v>55</v>
       </c>
       <c r="B134">
-        <v>116</v>
+        <v>54</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135">
+        <v>54</v>
+      </c>
+      <c r="B135">
         <v>55</v>
-      </c>
-      <c r="B135">
-        <v>54</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136">
+        <v>49</v>
+      </c>
+      <c r="B136">
         <v>54</v>
-      </c>
-      <c r="B136">
-        <v>55</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137">
+        <v>54</v>
+      </c>
+      <c r="B137">
         <v>49</v>
-      </c>
-      <c r="B137">
-        <v>54</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B138">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139">
+        <v>55</v>
+      </c>
+      <c r="B139">
         <v>56</v>
-      </c>
-      <c r="B139">
-        <v>55</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B140">
         <v>56</v>
@@ -1532,26 +1525,26 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B141">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B142">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B143">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
@@ -1559,28 +1552,28 @@
         <v>63</v>
       </c>
       <c r="B144">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145">
+        <v>62</v>
+      </c>
+      <c r="B145">
         <v>63</v>
-      </c>
-      <c r="B145">
-        <v>62</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B146">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B147">
         <v>57</v>
@@ -1588,15 +1581,15 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148">
+        <v>57</v>
+      </c>
+      <c r="B148">
         <v>58</v>
-      </c>
-      <c r="B148">
-        <v>57</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B149">
         <v>58</v>
@@ -1604,15 +1597,15 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150">
+        <v>58</v>
+      </c>
+      <c r="B150">
         <v>59</v>
-      </c>
-      <c r="B150">
-        <v>58</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B151">
         <v>59</v>
@@ -1620,23 +1613,23 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152">
+        <v>59</v>
+      </c>
+      <c r="B152">
         <v>60</v>
-      </c>
-      <c r="B152">
-        <v>59</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B153">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B154">
         <v>65</v>
@@ -1644,10 +1637,10 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155">
+        <v>65</v>
+      </c>
+      <c r="B155">
         <v>66</v>
-      </c>
-      <c r="B155">
-        <v>65</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
@@ -1655,36 +1648,36 @@
         <v>65</v>
       </c>
       <c r="B156">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B157">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B158">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B159">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B160">
         <v>72</v>
@@ -1692,39 +1685,39 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161">
+        <v>72</v>
+      </c>
+      <c r="B161">
         <v>73</v>
-      </c>
-      <c r="B161">
-        <v>72</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B162">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163">
+        <v>70</v>
+      </c>
+      <c r="B163">
         <v>71</v>
-      </c>
-      <c r="B163">
-        <v>70</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B164">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B165">
         <v>74</v>
@@ -1732,15 +1725,15 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166">
+        <v>74</v>
+      </c>
+      <c r="B166">
         <v>75</v>
-      </c>
-      <c r="B166">
-        <v>74</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B167">
         <v>75</v>
@@ -1748,15 +1741,15 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168">
+        <v>75</v>
+      </c>
+      <c r="B168">
         <v>76</v>
-      </c>
-      <c r="B168">
-        <v>75</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B169">
         <v>76</v>
@@ -1764,15 +1757,15 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170">
+        <v>76</v>
+      </c>
+      <c r="B170">
         <v>77</v>
-      </c>
-      <c r="B170">
-        <v>76</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B171">
         <v>77</v>
@@ -1780,31 +1773,31 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172">
+        <v>77</v>
+      </c>
+      <c r="B172">
         <v>78</v>
-      </c>
-      <c r="B172">
-        <v>77</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B173">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174">
+        <v>74</v>
+      </c>
+      <c r="B174">
         <v>79</v>
-      </c>
-      <c r="B174">
-        <v>74</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B175">
         <v>79</v>
@@ -1812,15 +1805,15 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176">
+        <v>79</v>
+      </c>
+      <c r="B176">
         <v>81</v>
-      </c>
-      <c r="B176">
-        <v>79</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B177">
         <v>81</v>
@@ -1828,15 +1821,15 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178">
+        <v>81</v>
+      </c>
+      <c r="B178">
         <v>85</v>
-      </c>
-      <c r="B178">
-        <v>81</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B179">
         <v>85</v>
@@ -1844,15 +1837,15 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180">
+        <v>85</v>
+      </c>
+      <c r="B180">
         <v>87</v>
-      </c>
-      <c r="B180">
-        <v>85</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B181">
         <v>87</v>
@@ -1860,15 +1853,15 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182">
+        <v>87</v>
+      </c>
+      <c r="B182">
         <v>91</v>
-      </c>
-      <c r="B182">
-        <v>87</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B183">
         <v>91</v>
@@ -1876,15 +1869,15 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184">
+        <v>91</v>
+      </c>
+      <c r="B184">
         <v>92</v>
-      </c>
-      <c r="B184">
-        <v>91</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B185">
         <v>92</v>
@@ -1892,42 +1885,42 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186">
+        <v>92</v>
+      </c>
+      <c r="B186">
         <v>93</v>
-      </c>
-      <c r="B186">
-        <v>92</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B187">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188">
+        <v>91</v>
+      </c>
+      <c r="B188">
         <v>90</v>
-      </c>
-      <c r="B188">
-        <v>91</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B189">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190">
+        <v>89</v>
+      </c>
+      <c r="B190">
         <v>90</v>
-      </c>
-      <c r="B190">
-        <v>89</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
@@ -1935,15 +1928,15 @@
         <v>89</v>
       </c>
       <c r="B191">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192">
+        <v>88</v>
+      </c>
+      <c r="B192">
         <v>89</v>
-      </c>
-      <c r="B192">
-        <v>88</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
@@ -1951,68 +1944,68 @@
         <v>88</v>
       </c>
       <c r="B193">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194">
+        <v>87</v>
+      </c>
+      <c r="B194">
         <v>88</v>
-      </c>
-      <c r="B194">
-        <v>87</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="B195">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196">
+        <v>92</v>
+      </c>
+      <c r="B196">
         <v>94</v>
-      </c>
-      <c r="B196">
-        <v>92</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B197">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198">
+        <v>85</v>
+      </c>
+      <c r="B198">
         <v>86</v>
-      </c>
-      <c r="B198">
-        <v>85</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B199">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200">
+        <v>81</v>
+      </c>
+      <c r="B200">
         <v>82</v>
-      </c>
-      <c r="B200">
-        <v>81</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B201">
         <v>82</v>
@@ -2020,15 +2013,15 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202">
+        <v>82</v>
+      </c>
+      <c r="B202">
         <v>83</v>
-      </c>
-      <c r="B202">
-        <v>82</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B203">
         <v>83</v>
@@ -2036,47 +2029,47 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204">
+        <v>83</v>
+      </c>
+      <c r="B204">
         <v>84</v>
-      </c>
-      <c r="B204">
-        <v>83</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B205">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206">
+        <v>79</v>
+      </c>
+      <c r="B206">
         <v>80</v>
-      </c>
-      <c r="B206">
-        <v>79</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="B207">
-        <v>80</v>
+        <v>94</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208">
+        <v>94</v>
+      </c>
+      <c r="B208">
         <v>95</v>
-      </c>
-      <c r="B208">
-        <v>94</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B209">
         <v>95</v>
@@ -2084,63 +2077,63 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210">
+        <v>95</v>
+      </c>
+      <c r="B210">
         <v>96</v>
-      </c>
-      <c r="B210">
-        <v>95</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211">
-        <v>95</v>
+        <v>169</v>
       </c>
       <c r="B211">
-        <v>96</v>
+        <v>74</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212">
+        <v>74</v>
+      </c>
+      <c r="B212">
         <v>169</v>
-      </c>
-      <c r="B212">
-        <v>74</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213">
-        <v>74</v>
+        <v>169</v>
       </c>
       <c r="B213">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214">
+        <v>168</v>
+      </c>
+      <c r="B214">
         <v>169</v>
-      </c>
-      <c r="B214">
-        <v>168</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215">
-        <v>168</v>
+        <v>98</v>
       </c>
       <c r="B215">
-        <v>169</v>
+        <v>97</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216">
+        <v>97</v>
+      </c>
+      <c r="B216">
         <v>98</v>
-      </c>
-      <c r="B216">
-        <v>97</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B217">
         <v>98</v>
@@ -2148,15 +2141,15 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218">
+        <v>98</v>
+      </c>
+      <c r="B218">
         <v>99</v>
-      </c>
-      <c r="B218">
-        <v>98</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B219">
         <v>99</v>
@@ -2164,31 +2157,31 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220">
+        <v>99</v>
+      </c>
+      <c r="B220">
         <v>100</v>
-      </c>
-      <c r="B220">
-        <v>99</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221">
+        <v>101</v>
+      </c>
+      <c r="B221">
         <v>99</v>
-      </c>
-      <c r="B221">
-        <v>100</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222">
+        <v>99</v>
+      </c>
+      <c r="B222">
         <v>101</v>
-      </c>
-      <c r="B222">
-        <v>99</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B223">
         <v>101</v>
@@ -2196,31 +2189,31 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224">
+        <v>101</v>
+      </c>
+      <c r="B224">
         <v>102</v>
-      </c>
-      <c r="B224">
-        <v>101</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225">
+        <v>103</v>
+      </c>
+      <c r="B225">
         <v>101</v>
-      </c>
-      <c r="B225">
-        <v>102</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226">
+        <v>101</v>
+      </c>
+      <c r="B226">
         <v>103</v>
-      </c>
-      <c r="B226">
-        <v>101</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B227">
         <v>103</v>
@@ -2228,63 +2221,63 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228">
+        <v>103</v>
+      </c>
+      <c r="B228">
         <v>105</v>
-      </c>
-      <c r="B228">
-        <v>103</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229">
+        <v>104</v>
+      </c>
+      <c r="B229">
         <v>103</v>
-      </c>
-      <c r="B229">
-        <v>105</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230">
+        <v>103</v>
+      </c>
+      <c r="B230">
         <v>104</v>
-      </c>
-      <c r="B230">
-        <v>103</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B231">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232">
+        <v>105</v>
+      </c>
+      <c r="B232">
         <v>106</v>
-      </c>
-      <c r="B232">
-        <v>105</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B233">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234">
+        <v>97</v>
+      </c>
+      <c r="B234">
         <v>106</v>
-      </c>
-      <c r="B234">
-        <v>97</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B235">
         <v>106</v>
@@ -2292,103 +2285,103 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236">
+        <v>106</v>
+      </c>
+      <c r="B236">
         <v>107</v>
-      </c>
-      <c r="B236">
-        <v>106</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237">
-        <v>106</v>
+        <v>166</v>
       </c>
       <c r="B237">
-        <v>107</v>
+        <v>168</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B238">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B239">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B240">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B241">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242">
+        <v>170</v>
+      </c>
+      <c r="B242">
         <v>171</v>
-      </c>
-      <c r="B242">
-        <v>170</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B243">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B244">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245">
+        <v>166</v>
+      </c>
+      <c r="B245">
         <v>167</v>
-      </c>
-      <c r="B245">
-        <v>166</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B246">
-        <v>167</v>
+        <v>111</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247">
-        <v>167</v>
+        <v>110</v>
       </c>
       <c r="B247">
-        <v>111</v>
+        <v>164</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248">
-        <v>110</v>
+        <v>165</v>
       </c>
       <c r="B248">
         <v>164</v>
@@ -2396,10 +2389,10 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249">
+        <v>164</v>
+      </c>
+      <c r="B249">
         <v>165</v>
-      </c>
-      <c r="B249">
-        <v>164</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
@@ -2407,39 +2400,39 @@
         <v>164</v>
       </c>
       <c r="B250">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251">
-        <v>164</v>
+        <v>109</v>
       </c>
       <c r="B251">
-        <v>166</v>
+        <v>108</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252">
+        <v>108</v>
+      </c>
+      <c r="B252">
         <v>109</v>
-      </c>
-      <c r="B252">
-        <v>108</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B253">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254">
+        <v>111</v>
+      </c>
+      <c r="B254">
         <v>109</v>
-      </c>
-      <c r="B254">
-        <v>110</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
@@ -2447,36 +2440,36 @@
         <v>111</v>
       </c>
       <c r="B255">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256">
+        <v>110</v>
+      </c>
+      <c r="B256">
         <v>111</v>
-      </c>
-      <c r="B256">
-        <v>110</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257">
+        <v>112</v>
+      </c>
+      <c r="B257">
         <v>110</v>
-      </c>
-      <c r="B257">
-        <v>111</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258">
+        <v>110</v>
+      </c>
+      <c r="B258">
         <v>112</v>
-      </c>
-      <c r="B258">
-        <v>110</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B259">
         <v>112</v>
@@ -2484,15 +2477,15 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260">
+        <v>112</v>
+      </c>
+      <c r="B260">
         <v>113</v>
-      </c>
-      <c r="B260">
-        <v>112</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B261">
         <v>113</v>
@@ -2500,106 +2493,106 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262">
+        <v>113</v>
+      </c>
+      <c r="B262">
         <v>114</v>
-      </c>
-      <c r="B262">
-        <v>113</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B263">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264">
+        <v>112</v>
+      </c>
+      <c r="B264">
         <v>115</v>
-      </c>
-      <c r="B264">
-        <v>112</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265">
-        <v>112</v>
+        <v>163</v>
       </c>
       <c r="B265">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266">
+        <v>111</v>
+      </c>
+      <c r="B266">
         <v>163</v>
-      </c>
-      <c r="B266">
-        <v>111</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267">
-        <v>111</v>
+        <v>157</v>
       </c>
       <c r="B267">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B268">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269">
+        <v>158</v>
+      </c>
+      <c r="B269">
         <v>159</v>
-      </c>
-      <c r="B269">
-        <v>158</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B270">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B271">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B272">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B273">
-        <v>156</v>
+        <v>143</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274">
+        <v>143</v>
+      </c>
+      <c r="B274">
         <v>154</v>
-      </c>
-      <c r="B274">
-        <v>143</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
@@ -2607,140 +2600,140 @@
         <v>143</v>
       </c>
       <c r="B275">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B276">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B277">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B278">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B279">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B280">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B281">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="B282">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B283">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B284">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B285">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B286">
-        <v>143</v>
+        <v>174</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="B287">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288">
+        <v>175</v>
+      </c>
+      <c r="B288">
         <v>174</v>
-      </c>
-      <c r="B288">
-        <v>175</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B289">
-        <v>174</v>
+        <v>145</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B290">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291">
+        <v>148</v>
+      </c>
+      <c r="B291">
         <v>176</v>
-      </c>
-      <c r="B291">
-        <v>148</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="B292">
         <v>176</v>
@@ -2748,15 +2741,15 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293">
+        <v>176</v>
+      </c>
+      <c r="B293">
         <v>177</v>
-      </c>
-      <c r="B293">
-        <v>176</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B294">
         <v>177</v>
@@ -2764,42 +2757,42 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295">
+        <v>177</v>
+      </c>
+      <c r="B295">
         <v>178</v>
-      </c>
-      <c r="B295">
-        <v>177</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="B296">
-        <v>178</v>
+        <v>141</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297">
+        <v>141</v>
+      </c>
+      <c r="B297">
         <v>150</v>
-      </c>
-      <c r="B297">
-        <v>141</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B298">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299">
+        <v>138</v>
+      </c>
+      <c r="B299">
         <v>139</v>
-      </c>
-      <c r="B299">
-        <v>138</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
@@ -2807,15 +2800,15 @@
         <v>138</v>
       </c>
       <c r="B300">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301">
+        <v>137</v>
+      </c>
+      <c r="B301">
         <v>138</v>
-      </c>
-      <c r="B301">
-        <v>137</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
@@ -2823,20 +2816,20 @@
         <v>137</v>
       </c>
       <c r="B302">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303">
+        <v>136</v>
+      </c>
+      <c r="B303">
         <v>137</v>
-      </c>
-      <c r="B303">
-        <v>136</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304">
-        <v>136</v>
+        <v>179</v>
       </c>
       <c r="B304">
         <v>137</v>
@@ -2844,47 +2837,47 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305">
+        <v>137</v>
+      </c>
+      <c r="B305">
         <v>179</v>
-      </c>
-      <c r="B305">
-        <v>137</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B306">
-        <v>179</v>
+        <v>127</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307">
+        <v>127</v>
+      </c>
+      <c r="B307">
         <v>132</v>
-      </c>
-      <c r="B307">
-        <v>127</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308">
+        <v>126</v>
+      </c>
+      <c r="B308">
         <v>127</v>
-      </c>
-      <c r="B308">
-        <v>132</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B309">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B310">
         <v>128</v>
@@ -2892,31 +2885,31 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311">
+        <v>125</v>
+      </c>
+      <c r="B311">
         <v>126</v>
-      </c>
-      <c r="B311">
-        <v>128</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312">
+        <v>121</v>
+      </c>
+      <c r="B312">
         <v>125</v>
-      </c>
-      <c r="B312">
-        <v>126</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B313">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B314">
         <v>129</v>
@@ -2924,15 +2917,15 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315">
+        <v>129</v>
+      </c>
+      <c r="B315">
         <v>130</v>
-      </c>
-      <c r="B315">
-        <v>129</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B316">
         <v>130</v>
@@ -2940,23 +2933,23 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B317">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="B318">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B319">
         <v>121</v>
@@ -2964,15 +2957,15 @@
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320">
+        <v>121</v>
+      </c>
+      <c r="B320">
         <v>122</v>
-      </c>
-      <c r="B320">
-        <v>121</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B321">
         <v>122</v>
@@ -2980,15 +2973,15 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322">
+        <v>122</v>
+      </c>
+      <c r="B322">
         <v>123</v>
-      </c>
-      <c r="B322">
-        <v>122</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B323">
         <v>123</v>
@@ -2996,56 +2989,48 @@
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324">
+        <v>123</v>
+      </c>
+      <c r="B324">
         <v>124</v>
-      </c>
-      <c r="B324">
-        <v>123</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B325">
-        <v>124</v>
+        <v>133</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326">
+        <v>133</v>
+      </c>
+      <c r="B326">
         <v>128</v>
-      </c>
-      <c r="B326">
-        <v>133</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="B327">
-        <v>128</v>
+        <v>156</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B328">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A329">
-        <v>156</v>
-      </c>
-      <c r="B329">
         <v>157</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:B153 A154:B156 A157:B306 A307:B329" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:B152 A153:B155 A156:B305 A306:B328" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>